--- a/ADCVD_REGRESSION_API/input_data/datapool/Regession_TC.xlsx
+++ b/ADCVD_REGRESSION_API/input_data/datapool/Regession_TC.xlsx
@@ -1,18 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF158BB1-2AA6-4B11-BCD9-B50503631573}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73CEA700-B07C-4445-85CA-2AA50C9A89AA}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2316" windowWidth="19008" windowHeight="7920" tabRatio="472" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="472" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Regression" sheetId="1" r:id="rId1"/>
     <sheet name="dropdowns" sheetId="7" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Regression!$A$1:$AB$14</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Regression!$A$1:$P$14</definedName>
     <definedName name="CaseType">dropdowns!$B$1:$B$2</definedName>
     <definedName name="CaseType2">dropdowns!$E$1:$E$3</definedName>
     <definedName name="FiledSelf">dropdowns!$C$1:$C$2</definedName>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="100">
   <si>
     <t>TC_TAG_001</t>
   </si>
@@ -97,9 +97,6 @@
     <t>Spain</t>
   </si>
   <si>
-    <t>Petition_Filed</t>
-  </si>
-  <si>
     <t>A-</t>
   </si>
   <si>
@@ -166,9 +163,6 @@
     <t>tFalse</t>
   </si>
   <si>
-    <t>1/15/2019</t>
-  </si>
-  <si>
     <t>TC_TAG_002</t>
   </si>
   <si>
@@ -178,15 +172,6 @@
     <t>CVD_Align_With_AD</t>
   </si>
   <si>
-    <t>Litigation_Filed</t>
-  </si>
-  <si>
-    <t>Expected_Final_Signature_Before_Ext</t>
-  </si>
-  <si>
-    <t>1/15/2022</t>
-  </si>
-  <si>
     <t>Self_Initiated_Petition_Investigation_Dates</t>
   </si>
   <si>
@@ -202,21 +187,9 @@
     <t>Populate and empty dates based on petition's type(initiated, self-initiated)</t>
   </si>
   <si>
-    <t>Actual_Initiation_Signature</t>
-  </si>
-  <si>
-    <t>Published_Date</t>
-  </si>
-  <si>
     <t>TC_TAG_004</t>
   </si>
   <si>
-    <t>Final_Date_Of_Anniversary_Month</t>
-  </si>
-  <si>
-    <t>Calculated_Initiation_Signature</t>
-  </si>
-  <si>
     <t>Test_Automation</t>
   </si>
   <si>
@@ -235,87 +208,33 @@
     <t>Petition_Status_Validation</t>
   </si>
   <si>
-    <t>1/15/2020</t>
-  </si>
-  <si>
-    <t>1/16/2019</t>
-  </si>
-  <si>
     <t>TC_TAG_006</t>
   </si>
   <si>
-    <t>1/15/2021</t>
-  </si>
-  <si>
-    <t>1/16/2020</t>
-  </si>
-  <si>
     <t>Investigation_Status_Validation</t>
   </si>
   <si>
-    <t>Actual_Preliminary_Signature</t>
-  </si>
-  <si>
     <t>TC_TAG_007</t>
   </si>
   <si>
-    <t>1/16/2021</t>
-  </si>
-  <si>
     <t>TC_TAG_008</t>
   </si>
   <si>
-    <t>1/15/2023</t>
-  </si>
-  <si>
-    <t>1/16/2022</t>
-  </si>
-  <si>
     <t>TC_TAG_009</t>
   </si>
   <si>
-    <t>1/15/2024</t>
-  </si>
-  <si>
-    <t>1/16/2023</t>
-  </si>
-  <si>
     <t>TC_TAG_010</t>
   </si>
   <si>
-    <t>1/15/2025</t>
-  </si>
-  <si>
-    <t>1/16/2024</t>
-  </si>
-  <si>
     <t>TC_TAG_011</t>
   </si>
   <si>
-    <t>1/15/2026</t>
-  </si>
-  <si>
-    <t>1/16/2025</t>
-  </si>
-  <si>
     <t>TC_TAG_012</t>
   </si>
   <si>
-    <t>1/15/2027</t>
-  </si>
-  <si>
-    <t>1/16/2026</t>
-  </si>
-  <si>
     <t>TC_TAG_013</t>
   </si>
   <si>
-    <t>1/15/2028</t>
-  </si>
-  <si>
-    <t>1/16/2027</t>
-  </si>
-  <si>
     <t>Admin_Review_Status_Validation</t>
   </si>
   <si>
@@ -362,18 +281,6 @@
   </si>
   <si>
     <t>Validate statuses of Sunset</t>
-  </si>
-  <si>
-    <t>Request_Filed_Date</t>
-  </si>
-  <si>
-    <t>Actual_Date_Of_Decision_How_To_Proceed</t>
-  </si>
-  <si>
-    <t>Application_Accepted_Date</t>
-  </si>
-  <si>
-    <t>Preliminary_Determination</t>
   </si>
   <si>
     <t>Decision_On_How_To_Proceed</t>
@@ -530,13 +437,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0"/>
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.79998168889431442"/>
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -556,7 +463,7 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -567,17 +474,24 @@
     </xf>
     <xf numFmtId="49" fontId="4" fillId="3" borderId="0" xfId="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="1"/>
+    <xf numFmtId="49" fontId="6" fillId="5" borderId="0" xfId="3" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="3"/>
+    <xf numFmtId="49" fontId="8" fillId="6" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="3" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="3" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="8" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="8" fillId="6" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="7" fillId="6" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="7" fillId="6" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="3" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="8" fillId="6" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="8" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="3" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="8" fillId="6" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="8" fillId="7" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="8" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="3" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="6" fillId="5" borderId="0" xfId="3" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
@@ -861,10 +775,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AC17"/>
+  <dimension ref="A1:Q17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Y1" workbookViewId="0">
-      <selection activeCell="AB16" sqref="AB16"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="P16" sqref="P16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -882,20 +796,12 @@
     <col min="11" max="11" width="45.6640625" customWidth="1"/>
     <col min="12" max="12" width="7.6640625" customWidth="1"/>
     <col min="13" max="13" width="11.6640625" customWidth="1"/>
-    <col min="14" max="14" width="13.33203125" customWidth="1"/>
-    <col min="15" max="15" width="14.44140625" customWidth="1"/>
-    <col min="16" max="16" width="34.44140625" customWidth="1"/>
-    <col min="17" max="17" width="25" customWidth="1"/>
-    <col min="18" max="18" width="14.6640625" customWidth="1"/>
-    <col min="19" max="22" width="18.5546875" customWidth="1"/>
-    <col min="23" max="23" width="27.109375" customWidth="1"/>
-    <col min="24" max="24" width="31.88671875" customWidth="1"/>
-    <col min="25" max="27" width="28.5546875" customWidth="1"/>
-    <col min="28" max="28" width="19.44140625" customWidth="1"/>
-    <col min="29" max="29" width="63" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="28.5546875" customWidth="1"/>
+    <col min="16" max="16" width="19.44140625" customWidth="1"/>
+    <col min="17" max="17" width="63" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>4</v>
       </c>
@@ -906,7 +812,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>5</v>
@@ -936,72 +842,36 @@
         <v>13</v>
       </c>
       <c r="N1" s="4" t="s">
-        <v>19</v>
+        <v>81</v>
       </c>
       <c r="O1" s="4" t="s">
-        <v>46</v>
+        <v>83</v>
       </c>
       <c r="P1" s="4" t="s">
-        <v>47</v>
+        <v>3</v>
       </c>
       <c r="Q1" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="R1" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="S1" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="T1" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="U1" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="V1" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="W1" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="X1" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="Y1" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z1" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="AA1" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="AB1" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="AC1" s="4" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.3">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G2" s="3" t="s">
         <v>17</v>
@@ -1011,10 +881,10 @@
       </c>
       <c r="I2" s="1"/>
       <c r="J2" s="1" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="L2" s="1" t="s">
         <v>18</v>
@@ -1022,98 +892,68 @@
       <c r="M2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="N2" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="O2" s="1"/>
-      <c r="P2" s="1"/>
-      <c r="Q2" s="1"/>
-      <c r="R2" s="1"/>
-      <c r="S2" s="1"/>
-      <c r="T2" s="1"/>
-      <c r="U2" s="1"/>
-      <c r="V2" s="1"/>
-      <c r="W2" s="1"/>
-      <c r="X2" s="1"/>
-      <c r="Y2" s="1"/>
-      <c r="Z2" s="1"/>
-      <c r="AA2" s="6"/>
-      <c r="AB2" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="AC2" s="7" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="N2" s="1"/>
+      <c r="O2" s="6"/>
+      <c r="P2" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="7" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
-      <c r="O3" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="P3" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q3" s="1"/>
-      <c r="R3" s="1"/>
-      <c r="S3" s="1"/>
-      <c r="T3" s="1"/>
-      <c r="U3" s="1"/>
-      <c r="V3" s="1"/>
-      <c r="W3" s="1"/>
-      <c r="X3" s="1"/>
-      <c r="Y3" s="1"/>
-      <c r="Z3" s="1"/>
-      <c r="AA3" s="6"/>
-      <c r="AB3" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="AC3" s="7" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="4" spans="1:29" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="O3" s="6"/>
+      <c r="P3" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="7" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G4" s="3" t="s">
         <v>17</v>
@@ -1123,10 +963,10 @@
       </c>
       <c r="I4" s="1"/>
       <c r="J4" s="1" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="L4" s="1" t="s">
         <v>18</v>
@@ -1134,51 +974,33 @@
       <c r="M4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="N4" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="O4" s="1"/>
-      <c r="P4" s="1"/>
-      <c r="Q4" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="R4" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="S4" s="1"/>
-      <c r="T4" s="1"/>
-      <c r="U4" s="1"/>
-      <c r="V4" s="1"/>
-      <c r="W4" s="1"/>
-      <c r="X4" s="1"/>
-      <c r="Y4" s="1"/>
-      <c r="Z4" s="1"/>
-      <c r="AA4" s="6"/>
-      <c r="AB4" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="AC4" s="7" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="N4" s="1"/>
+      <c r="O4" s="6"/>
+      <c r="P4" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="7" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>126</v>
+        <v>95</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>127</v>
+        <v>96</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G5" s="3" t="s">
         <v>17</v>
@@ -1188,10 +1010,10 @@
       </c>
       <c r="I5" s="1"/>
       <c r="J5" s="1" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="L5" s="1" t="s">
         <v>18</v>
@@ -1199,51 +1021,33 @@
       <c r="M5" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="N5" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="O5" s="1"/>
-      <c r="P5" s="1"/>
-      <c r="Q5" s="1"/>
-      <c r="R5" s="1"/>
-      <c r="S5" s="1"/>
-      <c r="T5" s="1"/>
-      <c r="U5" s="1"/>
-      <c r="V5" s="1"/>
-      <c r="W5" s="1"/>
-      <c r="X5" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="Y5" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="Z5" s="1"/>
-      <c r="AA5" s="6"/>
-      <c r="AB5" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="AC5" s="7" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="N5" s="1"/>
+      <c r="O5" s="6"/>
+      <c r="P5" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="7" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>99</v>
+        <v>72</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G6" s="3" t="s">
         <v>17</v>
@@ -1253,10 +1057,10 @@
       </c>
       <c r="I6" s="1"/>
       <c r="J6" s="1" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>99</v>
+        <v>72</v>
       </c>
       <c r="L6" s="1" t="s">
         <v>18</v>
@@ -1264,112 +1068,80 @@
       <c r="M6" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="N6" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="O6" s="1"/>
-      <c r="P6" s="1"/>
-      <c r="Q6" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="R6" s="1"/>
-      <c r="S6" s="1"/>
-      <c r="T6" s="1"/>
-      <c r="U6" s="1"/>
-      <c r="V6" s="1"/>
-      <c r="W6" s="1"/>
-      <c r="X6" s="1"/>
-      <c r="Y6" s="1"/>
-      <c r="Z6" s="1"/>
-      <c r="AA6" s="6"/>
-      <c r="AB6" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="AC6" s="7" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="7" spans="1:29" s="10" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="8">
+      <c r="N6" s="1"/>
+      <c r="O6" s="6"/>
+      <c r="P6" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="7" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" s="20" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="18">
         <v>6</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="E7" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="F7" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="G7" s="8" t="s">
+      <c r="B7" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="C7" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="D7" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="E7" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="F7" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="G7" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="H7" s="8" t="s">
+      <c r="H7" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="I7" s="8"/>
-      <c r="J7" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="K7" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="L7" s="8" t="s">
+      <c r="I7" s="18"/>
+      <c r="J7" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="K7" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="L7" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="M7" s="8" t="s">
+      <c r="M7" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="N7" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="O7" s="8"/>
-      <c r="P7" s="8"/>
-      <c r="Q7" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="R7" s="8"/>
-      <c r="S7" s="8"/>
-      <c r="T7" s="8"/>
-      <c r="U7" s="8"/>
-      <c r="V7" s="8"/>
-      <c r="W7" s="8"/>
-      <c r="X7" s="8"/>
-      <c r="Y7" s="8"/>
-      <c r="Z7" s="8"/>
-      <c r="AA7" s="9"/>
-      <c r="AB7" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC7" s="16" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="N7" s="18"/>
+      <c r="O7" s="19"/>
+      <c r="P7" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q7" s="12" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>92</v>
+        <v>65</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>101</v>
+        <v>74</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G8" s="3" t="s">
         <v>17</v>
@@ -1379,10 +1151,10 @@
       </c>
       <c r="I8" s="1"/>
       <c r="J8" s="1" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>101</v>
+        <v>74</v>
       </c>
       <c r="L8" s="1" t="s">
         <v>18</v>
@@ -1390,53 +1162,33 @@
       <c r="M8" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="N8" s="1" t="s">
-        <v>48</v>
-      </c>
+      <c r="N8" s="1"/>
       <c r="O8" s="1"/>
-      <c r="P8" s="1"/>
-      <c r="Q8" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="R8" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="S8" s="1"/>
-      <c r="T8" s="1"/>
-      <c r="U8" s="1"/>
-      <c r="V8" s="1"/>
-      <c r="W8" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="X8" s="1"/>
-      <c r="Y8" s="1"/>
-      <c r="Z8" s="1"/>
-      <c r="AA8" s="1"/>
-      <c r="AB8" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="AC8" s="7" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="P8" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q8" s="7" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>93</v>
+        <v>66</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>102</v>
+        <v>75</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G9" s="3" t="s">
         <v>17</v>
@@ -1446,10 +1198,10 @@
       </c>
       <c r="I9" s="1"/>
       <c r="J9" s="1" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>102</v>
+        <v>75</v>
       </c>
       <c r="L9" s="1" t="s">
         <v>18</v>
@@ -1457,55 +1209,33 @@
       <c r="M9" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="N9" s="1" t="s">
-        <v>75</v>
-      </c>
+      <c r="N9" s="1"/>
       <c r="O9" s="1"/>
-      <c r="P9" s="1"/>
-      <c r="Q9" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="R9" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="S9" s="1"/>
-      <c r="T9" s="1"/>
-      <c r="U9" s="1"/>
-      <c r="V9" s="1"/>
-      <c r="W9" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="X9" s="1"/>
-      <c r="Y9" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="Z9" s="1"/>
-      <c r="AA9" s="1"/>
-      <c r="AB9" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="AC9" s="7" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="P9" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q9" s="7" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>94</v>
+        <v>67</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>77</v>
+        <v>60</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>103</v>
+        <v>76</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G10" s="3" t="s">
         <v>17</v>
@@ -1515,10 +1245,10 @@
       </c>
       <c r="I10" s="1"/>
       <c r="J10" s="1" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>103</v>
+        <v>76</v>
       </c>
       <c r="L10" s="1" t="s">
         <v>18</v>
@@ -1526,53 +1256,33 @@
       <c r="M10" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="N10" s="1" t="s">
-        <v>78</v>
-      </c>
+      <c r="N10" s="1"/>
       <c r="O10" s="1"/>
-      <c r="P10" s="1"/>
-      <c r="Q10" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="R10" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="S10" s="1"/>
-      <c r="T10" s="1"/>
-      <c r="U10" s="1"/>
-      <c r="V10" s="1"/>
-      <c r="W10" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="X10" s="1"/>
-      <c r="Y10" s="1"/>
-      <c r="Z10" s="1"/>
-      <c r="AA10" s="1"/>
-      <c r="AB10" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="AC10" s="7" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="P10" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q10" s="7" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>95</v>
+        <v>68</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>80</v>
+        <v>61</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>104</v>
+        <v>77</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G11" s="3" t="s">
         <v>17</v>
@@ -1582,10 +1292,10 @@
       </c>
       <c r="I11" s="1"/>
       <c r="J11" s="1" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>104</v>
+        <v>77</v>
       </c>
       <c r="L11" s="1" t="s">
         <v>18</v>
@@ -1593,57 +1303,33 @@
       <c r="M11" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="N11" s="1" t="s">
-        <v>81</v>
-      </c>
+      <c r="N11" s="1"/>
       <c r="O11" s="1"/>
-      <c r="P11" s="1"/>
-      <c r="Q11" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="R11" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="S11" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="T11" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="U11" s="1"/>
-      <c r="V11" s="1"/>
-      <c r="W11" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="X11" s="1"/>
-      <c r="Y11" s="1"/>
-      <c r="Z11" s="1"/>
-      <c r="AA11" s="1"/>
-      <c r="AB11" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="AC11" s="7" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="P11" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q11" s="7" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>96</v>
+        <v>69</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>83</v>
+        <v>62</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>105</v>
+        <v>78</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G12" s="3" t="s">
         <v>17</v>
@@ -1653,10 +1339,10 @@
       </c>
       <c r="I12" s="1"/>
       <c r="J12" s="1" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>105</v>
+        <v>78</v>
       </c>
       <c r="L12" s="1" t="s">
         <v>18</v>
@@ -1664,292 +1350,190 @@
       <c r="M12" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="N12" s="1" t="s">
+      <c r="N12" s="1"/>
+      <c r="O12" s="1"/>
+      <c r="P12" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q12" s="7" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="8">
+        <v>12</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="G13" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="H13" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="I13" s="8"/>
+      <c r="J13" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="K13" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="L13" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="M13" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="N13" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="O13" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="O12" s="1"/>
-      <c r="P12" s="1"/>
-      <c r="Q12" s="1" t="s">
+      <c r="P13" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q13" s="7" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="10">
+        <v>13</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F14" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="G14" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="H14" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="I14" s="10"/>
+      <c r="J14" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="K14" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="L14" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="M14" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="N14" s="10"/>
+      <c r="O14" s="10"/>
+      <c r="P14" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q14" s="12" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" s="17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="10">
+        <v>14</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="C15" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="R12" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="S12" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="T12" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="U12" s="1"/>
-      <c r="V12" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="W12" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="X12" s="1"/>
-      <c r="Y12" s="1"/>
-      <c r="Z12" s="1"/>
-      <c r="AA12" s="1"/>
-      <c r="AB12" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="AC12" s="7" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="13" spans="1:29" s="18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="17">
-        <v>12</v>
-      </c>
-      <c r="B13" s="17" t="s">
-        <v>97</v>
-      </c>
-      <c r="C13" s="17" t="s">
+      <c r="D15" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="E15" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="F15" s="14"/>
+      <c r="G15" s="14"/>
+      <c r="H15" s="14"/>
+      <c r="I15" s="14"/>
+      <c r="J15" s="10"/>
+      <c r="K15" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="L15" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="M15" s="14"/>
+      <c r="N15" s="14"/>
+      <c r="O15" s="15"/>
+      <c r="P15" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q15" s="16" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" s="25" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="21">
+        <v>15</v>
+      </c>
+      <c r="B16" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="C16" s="21" t="s">
         <v>86</v>
       </c>
-      <c r="D13" s="17" t="s">
-        <v>106</v>
-      </c>
-      <c r="E13" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="F13" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="G13" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="H13" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="I13" s="17"/>
-      <c r="J13" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="K13" s="17" t="s">
-        <v>106</v>
-      </c>
-      <c r="L13" s="17" t="s">
+      <c r="D16" s="21" t="s">
+        <v>90</v>
+      </c>
+      <c r="E16" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="F16" s="23"/>
+      <c r="G16" s="23"/>
+      <c r="H16" s="23"/>
+      <c r="I16" s="23"/>
+      <c r="J16" s="21"/>
+      <c r="K16" s="21" t="s">
+        <v>94</v>
+      </c>
+      <c r="L16" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="M13" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="N13" s="17" t="s">
-        <v>87</v>
-      </c>
-      <c r="O13" s="17"/>
-      <c r="P13" s="17"/>
-      <c r="Q13" s="17" t="s">
-        <v>88</v>
-      </c>
-      <c r="R13" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="S13" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="T13" s="17"/>
-      <c r="U13" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="V13" s="17"/>
-      <c r="W13" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="X13" s="17"/>
-      <c r="Y13" s="17"/>
-      <c r="Z13" s="17" t="s">
-        <v>113</v>
-      </c>
-      <c r="AA13" s="17" t="s">
-        <v>115</v>
-      </c>
-      <c r="AB13" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="AC13" s="7" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="14" spans="1:29" s="13" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="11">
-        <v>13</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="C14" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="D14" s="11" t="s">
-        <v>107</v>
-      </c>
-      <c r="E14" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="F14" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="G14" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="H14" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="I14" s="11"/>
-      <c r="J14" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="K14" s="11" t="s">
-        <v>107</v>
-      </c>
-      <c r="L14" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="M14" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="N14" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="O14" s="11"/>
-      <c r="P14" s="11"/>
-      <c r="Q14" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="R14" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="S14" s="11"/>
-      <c r="T14" s="11"/>
-      <c r="U14" s="11"/>
-      <c r="V14" s="11"/>
-      <c r="W14" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="X14" s="11"/>
-      <c r="Y14" s="11"/>
-      <c r="Z14" s="11"/>
-      <c r="AA14" s="11"/>
-      <c r="AB14" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC14" s="16" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="15" spans="1:29" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="11">
-        <v>14</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C15" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="D15" s="11" t="s">
-        <v>120</v>
-      </c>
-      <c r="E15" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="F15" s="12"/>
-      <c r="G15" s="12"/>
-      <c r="H15" s="12"/>
-      <c r="I15" s="12"/>
-      <c r="J15" s="11"/>
-      <c r="K15" s="11" t="s">
-        <v>124</v>
-      </c>
-      <c r="L15" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="M15" s="12"/>
-      <c r="N15" s="12"/>
-      <c r="O15" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="P15" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q15" s="12"/>
-      <c r="R15" s="12"/>
-      <c r="S15" s="12"/>
-      <c r="T15" s="12"/>
-      <c r="U15" s="12"/>
-      <c r="V15" s="12"/>
-      <c r="W15" s="12"/>
-      <c r="X15" s="12"/>
-      <c r="Y15" s="12"/>
-      <c r="Z15" s="12"/>
-      <c r="AA15" s="14"/>
-      <c r="AB15" s="6" t="b">
-        <v>1</v>
-      </c>
-      <c r="AC15" s="7" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="16" spans="1:29" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="11">
-        <v>15</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="C16" s="11" t="s">
-        <v>117</v>
-      </c>
-      <c r="D16" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="E16" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="F16" s="12"/>
-      <c r="G16" s="12"/>
-      <c r="H16" s="12"/>
-      <c r="I16" s="12"/>
-      <c r="J16" s="11"/>
-      <c r="K16" s="11" t="s">
-        <v>125</v>
-      </c>
-      <c r="L16" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="M16" s="12"/>
-      <c r="N16" s="12"/>
-      <c r="O16" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="P16" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q16" s="12"/>
-      <c r="R16" s="12"/>
-      <c r="S16" s="12"/>
-      <c r="T16" s="12"/>
-      <c r="U16" s="12"/>
-      <c r="V16" s="12"/>
-      <c r="W16" s="12"/>
-      <c r="X16" s="12"/>
-      <c r="Y16" s="12"/>
-      <c r="Z16" s="12"/>
-      <c r="AA16" s="12"/>
-      <c r="AB16" s="6" t="b">
-        <v>0</v>
-      </c>
-      <c r="AC16" s="16" t="s">
-        <v>130</v>
+      <c r="M16" s="23"/>
+      <c r="N16" s="23"/>
+      <c r="O16" s="23"/>
+      <c r="P16" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q16" s="24" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="17" ht="5.25" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
-  <autoFilter ref="A1:AB14" xr:uid="{F0E771B3-A481-4DD0-B3ED-7DCB6749EF64}"/>
+  <autoFilter ref="A1:P14" xr:uid="{F0E771B3-A481-4DD0-B3ED-7DCB6749EF64}"/>
   <dataValidations count="5">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2 M4:M14" xr:uid="{6A157A86-3C6C-4079-A49E-09147802FCCC}">
       <formula1>Yes_No</formula1>
@@ -1960,7 +1544,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2 H4:H14" xr:uid="{46AD7191-82B7-413F-8595-7A1128BA42E7}">
       <formula1>CaseType2</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AB2:AB16" xr:uid="{DBE1DED1-53EF-43BE-8D71-88C6B8A3A55F}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P2:P16" xr:uid="{DBE1DED1-53EF-43BE-8D71-88C6B8A3A55F}">
       <formula1>tFalse</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E16" xr:uid="{226BB8D3-1623-478B-A6C3-89622019E118}">
@@ -1990,19 +1574,19 @@
         <v>14</v>
       </c>
       <c r="B1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E1" t="s">
         <v>16</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G1" t="b">
         <v>1</v>
@@ -2013,19 +1597,19 @@
         <v>15</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G2" t="b">
         <v>0</v>
@@ -2033,53 +1617,53 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" t="s">
         <v>29</v>
       </c>
-      <c r="B3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D3" t="s">
-        <v>30</v>
-      </c>
       <c r="E3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="F5" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="F6" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="F7" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="F8" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/ADCVD_REGRESSION_API/input_data/datapool/Regession_TC.xlsx
+++ b/ADCVD_REGRESSION_API/input_data/datapool/Regession_TC.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73CEA700-B07C-4445-85CA-2AA50C9A89AA}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADEDA6F8-77B4-4042-A3E8-40FC7CAC6929}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="472" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -777,8 +777,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="P16" sqref="P16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P3" sqref="P3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -895,7 +895,7 @@
       <c r="N2" s="1"/>
       <c r="O2" s="6"/>
       <c r="P2" s="6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q2" s="7" t="s">
         <v>91</v>
@@ -977,7 +977,7 @@
       <c r="N4" s="1"/>
       <c r="O4" s="6"/>
       <c r="P4" s="6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>91</v>
@@ -1024,7 +1024,7 @@
       <c r="N5" s="1"/>
       <c r="O5" s="6"/>
       <c r="P5" s="6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>91</v>
@@ -1071,7 +1071,7 @@
       <c r="N6" s="1"/>
       <c r="O6" s="6"/>
       <c r="P6" s="6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q6" s="7" t="s">
         <v>91</v>
@@ -1118,7 +1118,7 @@
       <c r="N7" s="18"/>
       <c r="O7" s="19"/>
       <c r="P7" s="6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q7" s="12" t="s">
         <v>98</v>
@@ -1165,7 +1165,7 @@
       <c r="N8" s="1"/>
       <c r="O8" s="1"/>
       <c r="P8" s="6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>91</v>
@@ -1212,7 +1212,7 @@
       <c r="N9" s="1"/>
       <c r="O9" s="1"/>
       <c r="P9" s="6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q9" s="7" t="s">
         <v>91</v>
@@ -1259,7 +1259,7 @@
       <c r="N10" s="1"/>
       <c r="O10" s="1"/>
       <c r="P10" s="6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>91</v>
@@ -1306,7 +1306,7 @@
       <c r="N11" s="1"/>
       <c r="O11" s="1"/>
       <c r="P11" s="6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>91</v>
@@ -1353,7 +1353,7 @@
       <c r="N12" s="1"/>
       <c r="O12" s="1"/>
       <c r="P12" s="6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q12" s="7" t="s">
         <v>91</v>
@@ -1404,7 +1404,7 @@
         <v>84</v>
       </c>
       <c r="P13" s="6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q13" s="7" t="s">
         <v>91</v>
@@ -1451,7 +1451,7 @@
       <c r="N14" s="10"/>
       <c r="O14" s="10"/>
       <c r="P14" s="6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q14" s="12" t="s">
         <v>98</v>
@@ -1488,7 +1488,7 @@
       <c r="N15" s="14"/>
       <c r="O15" s="15"/>
       <c r="P15" s="6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q15" s="16" t="s">
         <v>92</v>
@@ -1525,7 +1525,7 @@
       <c r="N16" s="23"/>
       <c r="O16" s="23"/>
       <c r="P16" s="6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q16" s="24" t="s">
         <v>99</v>
